--- a/Data/Lines.xlsx
+++ b/Data/Lines.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Lines_2022" sheetId="1" r:id="rId1"/>
+    <sheet name="Lines_2023" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -402,7 +402,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
